--- a/Tabla del automata general.xlsx
+++ b/Tabla del automata general.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colossus\Desktop\NetBeansProjects\Automatasss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colossus\Desktop\NetBeansProjects\Automatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CF1255-6AF1-48F2-A19E-CBF9C09673E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AE58F5-BFAE-4663-B21F-FAD5160B9CA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1095" windowWidth="21840" windowHeight="13290" xr2:uid="{093647A5-119B-4BDE-B5A0-2D183C1413F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{093647A5-119B-4BDE-B5A0-2D183C1413F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +934,7 @@
         <v>-1</v>
       </c>
       <c r="F11" s="2">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G11" s="2">
         <v>-1</v>
@@ -1543,15 +1543,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010026037079038A5D4FA7D4773640510552" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1420593049081061c8874c19cf535d47">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b3f10cbe-0107-4dd6-91e3-0bdf8f21ee26" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="669d828b27f0b748e98cd51cefe7b233" ns2:_="">
     <xsd:import namespace="b3f10cbe-0107-4dd6-91e3-0bdf8f21ee26"/>
@@ -1723,6 +1714,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1730,15 +1730,29 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4857168C-50A1-434B-BE87-C9FE271EFAA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b3f10cbe-0107-4dd6-91e3-0bdf8f21ee26"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62C5D332-E480-455C-A4BE-830D10966480}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4857168C-50A1-434B-BE87-C9FE271EFAA2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
